--- a/Planning/gantt_chart.xlsx
+++ b/Planning/gantt_chart.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adven\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bodiam\ATT\aj418\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C28C40BF-ABE5-460F-BA70-EEA15755D799}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -91,12 +90,18 @@
   </si>
   <si>
     <t>jj</t>
+  </si>
+  <si>
+    <t>Login Implementation</t>
+  </si>
+  <si>
+    <t>Alice and Kieran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -198,9 +203,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Start Date</c:v>
-          </c:tx>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -211,9 +213,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Testing Plan</c:v>
                 </c:pt>
@@ -234,16 +236,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Class Diagram</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Login Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43494</c:v>
                 </c:pt>
@@ -264,6 +269,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,9 +285,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Duration</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -292,9 +297,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Testing Plan</c:v>
                 </c:pt>
@@ -315,16 +320,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Class Diagram</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Login Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -340,11 +348,8 @@
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,6 +492,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -494,7 +500,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1377,11 +1382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1444,7 @@
         <v>43494</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">E3-C3</f>
+        <f t="shared" ref="D3:D8" si="0">E3-C3</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -1510,9 +1515,6 @@
       <c r="C7" s="1">
         <v>43497</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
@@ -1528,13 +1530,26 @@
         <v>43497</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43504</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43501</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>

--- a/Planning/gantt_chart.xlsx
+++ b/Planning/gantt_chart.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -77,25 +77,64 @@
     <t>Kieran</t>
   </si>
   <si>
-    <t>Gantt Chart</t>
-  </si>
-  <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t>Login Implementation</t>
-  </si>
-  <si>
     <t>Alice and Kieran</t>
+  </si>
+  <si>
+    <t>Original Class Diagram</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Access Level Login</t>
+  </si>
+  <si>
+    <t>Ibraheem and Isaiah</t>
+  </si>
+  <si>
+    <t>Basic Login &amp; Logout Implementation</t>
+  </si>
+  <si>
+    <t>Changing Access Levels</t>
+  </si>
+  <si>
+    <t>Logging Authorisation attempts</t>
+  </si>
+  <si>
+    <t>Gantt Chart Template</t>
+  </si>
+  <si>
+    <t>Updated Class Diagram</t>
+  </si>
+  <si>
+    <t>Conor, Kieran, Alice</t>
+  </si>
+  <si>
+    <t>Test Classes</t>
+  </si>
+  <si>
+    <t>Creating Personal Records</t>
+  </si>
+  <si>
+    <t>Updated Creating  Personal Records</t>
+  </si>
+  <si>
+    <t>Creating Review Records</t>
+  </si>
+  <si>
+    <t>Updated Login Implemetation</t>
+  </si>
+  <si>
+    <t>Storing Logging Authorisation Attempts</t>
+  </si>
+  <si>
+    <t>Creating Record Files</t>
+  </si>
+  <si>
+    <t>Updated Logout Implementation</t>
+  </si>
+  <si>
+    <t>Updated Changing Basic Access Levels</t>
   </si>
 </sst>
 </file>
@@ -213,9 +252,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Testing Plan</c:v>
                 </c:pt>
@@ -232,23 +271,62 @@
                   <c:v>Version Control Plan</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Gantt Chart</c:v>
+                  <c:v>Gantt Chart Template</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Class Diagram</c:v>
+                  <c:v>Original Class Diagram</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Login Implementation</c:v>
+                  <c:v>Basic Login &amp; Logout Implementation</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Access Level Login</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Creating Personal Records</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Changing Access Levels</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Logging Authorisation attempts</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Test Classes</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Updated Class Diagram</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Updated Creating  Personal Records</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Creating Review Records</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Updated Logout Implementation</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Updated Changing Basic Access Levels</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Updated Login Implemetation</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Storing Logging Authorisation Attempts</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Creating Record Files</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43494</c:v>
                 </c:pt>
@@ -265,13 +343,52 @@
                   <c:v>43494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43497</c:v>
+                  <c:v>43495</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43497</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43509</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43518</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43515</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,9 +414,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Testing Plan</c:v>
                 </c:pt>
@@ -316,23 +433,62 @@
                   <c:v>Version Control Plan</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Gantt Chart</c:v>
+                  <c:v>Gantt Chart Template</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Class Diagram</c:v>
+                  <c:v>Original Class Diagram</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Login Implementation</c:v>
+                  <c:v>Basic Login &amp; Logout Implementation</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Access Level Login</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Creating Personal Records</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Changing Access Levels</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Logging Authorisation attempts</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Test Classes</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Updated Class Diagram</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Updated Creating  Personal Records</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Creating Review Records</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Updated Logout Implementation</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Updated Changing Basic Access Levels</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Updated Login Implemetation</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Storing Logging Authorisation Attempts</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Creating Record Files</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -348,8 +504,53 @@
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,7 +681,8 @@
         <c:crossAx val="730214911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1083,16 +1285,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>482975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>773206</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145117</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1383,22 +1585,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1414,8 +1616,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1432,8 +1637,11 @@
       <c r="E2" s="1">
         <v>43495</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1444,14 +1652,17 @@
         <v>43494</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="0">E3-C3</f>
+        <f t="shared" ref="D3:D14" si="0">E3-C3</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>43496</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1468,8 +1679,11 @@
       <c r="E4" s="2">
         <v>43495</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1486,8 +1700,11 @@
       <c r="E5" s="1">
         <v>43497</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1504,27 +1721,37 @@
       <c r="E6" s="1">
         <v>43496</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1">
+        <v>43495</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
         <v>43497</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>43497</v>
@@ -1536,22 +1763,302 @@
       <c r="E8" s="1">
         <v>43504</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>43501</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43502</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="M9" t="s">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43501</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43503</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43505</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43507</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43505</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43508</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43509</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43512</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43507</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43513</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43522</v>
+      </c>
+      <c r="D15">
+        <f>E15-C15</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43524</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43518</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D22" si="1">E16-C16</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>43519</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43524</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43525</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43518</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43519</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43524</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43525</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43524</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43526</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43515</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>43522</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43516</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>43518</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/gantt_chart.xlsx
+++ b/Planning/gantt_chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bodiam\ATT\aj418\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -135,6 +135,57 @@
   </si>
   <si>
     <t>Updated Changing Basic Access Levels</t>
+  </si>
+  <si>
+    <t>Created web page for PDF links</t>
+  </si>
+  <si>
+    <t>Modified code for overall consistency</t>
+  </si>
+  <si>
+    <t>Allocating reviewers</t>
+  </si>
+  <si>
+    <t>Reviewee creating documents</t>
+  </si>
+  <si>
+    <t>Implemented loading PDFs</t>
+  </si>
+  <si>
+    <t>Combined databases into one</t>
+  </si>
+  <si>
+    <t>Refactored web page to exsist independently</t>
+  </si>
+  <si>
+    <t>AppController Review Implementation</t>
+  </si>
+  <si>
+    <t>Updated create and read review</t>
+  </si>
+  <si>
+    <t>Amed review implementation</t>
+  </si>
+  <si>
+    <t>Create video demonstration</t>
+  </si>
+  <si>
+    <t>Edit video demonstration</t>
+  </si>
+  <si>
+    <t>Kieran and Isaiah</t>
+  </si>
+  <si>
+    <t>Storing reviewers in HRdatabase</t>
+  </si>
+  <si>
+    <t>Final test classes</t>
+  </si>
+  <si>
+    <t>Finishing off any documentation</t>
+  </si>
+  <si>
+    <t>Adding all final links to the web page</t>
   </si>
 </sst>
 </file>
@@ -234,7 +285,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12024317097074605"/>
+          <c:y val="3.8841252819384761E-2"/>
+          <c:w val="0.85385160511196856"/>
+          <c:h val="0.92700934050134753"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -252,9 +313,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Testing Plan</c:v>
                 </c:pt>
@@ -317,16 +378,64 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Creating Record Files</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Created web page for PDF links</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Modified code for overall consistency</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Allocating reviewers</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Storing reviewers in HRdatabase</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Reviewee creating documents</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Implemented loading PDFs</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Combined databases into one</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Refactored web page to exsist independently</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AppController Review Implementation</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Updated create and read review</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Amed review implementation</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Create video demonstration</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Edit video demonstration</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Final test classes</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Finishing off any documentation</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Adding all final links to the web page</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:f>Sheet1!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43494</c:v>
                 </c:pt>
@@ -389,6 +498,54 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43529</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43529</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43530</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43531</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43534</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43532</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43543</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43544</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43546</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43546</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,9 +571,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Testing Plan</c:v>
                 </c:pt>
@@ -479,16 +636,64 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Creating Record Files</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Created web page for PDF links</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Modified code for overall consistency</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Allocating reviewers</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Storing reviewers in HRdatabase</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Reviewee creating documents</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Implemented loading PDFs</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Combined databases into one</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Refactored web page to exsist independently</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AppController Review Implementation</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Updated create and read review</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Amed review implementation</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Create video demonstration</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Edit video demonstration</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Final test classes</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Finishing off any documentation</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Adding all final links to the web page</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$22</c:f>
+              <c:f>Sheet1!$D$2:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -550,6 +755,54 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -629,6 +882,7 @@
         <c:axId val="617706767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="43550"/>
           <c:min val="43494"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -681,8 +935,8 @@
         <c:crossAx val="730214911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="0.2"/>
+        <c:majorUnit val="3"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1286,15 +1540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
+      <xdr:colOff>22410</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1585,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1925,7 +2179,7 @@
         <v>43518</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D22" si="1">E16-C16</f>
+        <f t="shared" ref="D16:D38" si="1">E16-C16</f>
         <v>1</v>
       </c>
       <c r="E16" s="1">
@@ -2059,6 +2313,342 @@
       </c>
       <c r="F22">
         <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43530</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>43532</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43529</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43531</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43529</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>43530</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43530</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43531</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43531</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43532</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43534</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>43536</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43532</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43535</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43542</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>43543</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43542</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43547</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43543</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43546</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43544</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>43546</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43537</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43544</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43539</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>43546</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43546</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>43547</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43546</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>43547</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43546</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>43548</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/gantt_chart.xlsx
+++ b/Planning/gantt_chart.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Conor/Google Drive/Uni Work/CO510 - Software Engineering/##_Group Work/Git/13c/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB019B1B-1E1A-FC4E-B09C-BE5698AD5D66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -191,8 +192,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,7 +218,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,10 +254,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -313,7 +322,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$41:$A$77</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
@@ -432,9 +441,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$38</c:f>
+              <c:f>Sheet1!$C$41:$C$77</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43494</c:v>
@@ -571,7 +580,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$41:$A$77</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
@@ -690,7 +699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$38</c:f>
+              <c:f>Sheet1!$D$41:$D$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -834,6 +843,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -901,7 +924,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -948,7 +971,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -956,6 +978,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1539,16 +1562,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22410</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>73898</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>739588</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>532029</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1838,822 +1861,826 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A40:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C41" s="2">
         <v>43494</v>
       </c>
-      <c r="D2">
-        <f>E2-C2</f>
+      <c r="D41" s="1">
+        <f>E41-C41</f>
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E41" s="2">
         <v>43495</v>
       </c>
-      <c r="F2">
+      <c r="F41" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C42" s="2">
         <v>43494</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D14" si="0">E3-C3</f>
+      <c r="D42" s="1">
+        <f t="shared" ref="D42:D53" si="0">E42-C42</f>
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E42" s="2">
         <v>43496</v>
       </c>
-      <c r="F3">
+      <c r="F42" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C43" s="2">
         <v>43494</v>
       </c>
-      <c r="D4">
+      <c r="D43" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E43" s="3">
         <v>43495</v>
       </c>
-      <c r="F4">
+      <c r="F43" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C44" s="2">
         <v>43494</v>
       </c>
-      <c r="D5">
+      <c r="D44" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E44" s="2">
         <v>43497</v>
       </c>
-      <c r="F5">
+      <c r="F44" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C45" s="2">
         <v>43494</v>
       </c>
-      <c r="D6">
+      <c r="D45" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E45" s="2">
         <v>43496</v>
       </c>
-      <c r="F6">
+      <c r="F45" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C46" s="2">
         <v>43495</v>
       </c>
-      <c r="D7">
+      <c r="D46" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E46" s="2">
         <v>43497</v>
       </c>
-      <c r="F7">
+      <c r="F46" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C47" s="2">
         <v>43497</v>
       </c>
-      <c r="D8">
+      <c r="D47" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E47" s="2">
         <v>43504</v>
       </c>
-      <c r="F8">
+      <c r="F47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C48" s="2">
         <v>43501</v>
       </c>
-      <c r="D9">
+      <c r="D48" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E48" s="2">
         <v>43502</v>
       </c>
-      <c r="F9">
+      <c r="F48" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C49" s="2">
         <v>43501</v>
       </c>
-      <c r="D10">
+      <c r="D49" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E49" s="2">
         <v>43503</v>
       </c>
-      <c r="F10">
+      <c r="F49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C50" s="2">
         <v>43505</v>
       </c>
-      <c r="D11">
+      <c r="D50" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E50" s="2">
         <v>43507</v>
       </c>
-      <c r="F11">
+      <c r="F50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C51" s="2">
         <v>43505</v>
       </c>
-      <c r="D12">
+      <c r="D51" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E51" s="2">
         <v>43508</v>
       </c>
-      <c r="F12">
+      <c r="F51" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C52" s="2">
         <v>43509</v>
       </c>
-      <c r="D13">
+      <c r="D52" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E52" s="2">
         <v>43512</v>
       </c>
-      <c r="F13">
+      <c r="F52" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C53" s="2">
         <v>43507</v>
       </c>
-      <c r="D14">
+      <c r="D53" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E53" s="2">
         <v>43513</v>
       </c>
-      <c r="F14">
+      <c r="F53" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C54" s="2">
         <v>43522</v>
       </c>
-      <c r="D15">
-        <f>E15-C15</f>
+      <c r="D54" s="1">
+        <f>E54-C54</f>
         <v>2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E54" s="2">
         <v>43524</v>
       </c>
-      <c r="F15">
+      <c r="F54" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C55" s="2">
         <v>43518</v>
       </c>
-      <c r="D16">
-        <f t="shared" ref="D16:D38" si="1">E16-C16</f>
+      <c r="D55" s="1">
+        <f t="shared" ref="D55:D77" si="1">E55-C55</f>
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E55" s="2">
         <v>43519</v>
       </c>
-      <c r="F16">
+      <c r="F55" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C56" s="2">
         <v>43524</v>
       </c>
-      <c r="D17">
+      <c r="D56" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E56" s="2">
         <v>43525</v>
       </c>
-      <c r="F17">
+      <c r="F56" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C57" s="2">
         <v>43518</v>
       </c>
-      <c r="D18">
+      <c r="D57" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E57" s="2">
         <v>43519</v>
       </c>
-      <c r="F18">
+      <c r="F57" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C58" s="2">
         <v>43524</v>
       </c>
-      <c r="D19">
+      <c r="D58" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E58" s="2">
         <v>43525</v>
       </c>
-      <c r="F19">
+      <c r="F58" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C59" s="2">
         <v>43524</v>
       </c>
-      <c r="D20">
+      <c r="D59" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E59" s="2">
         <v>43526</v>
       </c>
-      <c r="F20">
+      <c r="F59" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C60" s="2">
         <v>43515</v>
       </c>
-      <c r="D21">
+      <c r="D60" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E60" s="2">
         <v>43522</v>
       </c>
-      <c r="F21">
+      <c r="F60" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C61" s="2">
         <v>43516</v>
       </c>
-      <c r="D22">
+      <c r="D61" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E61" s="2">
         <v>43518</v>
       </c>
-      <c r="F22">
+      <c r="F61" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C62" s="2">
         <v>43530</v>
       </c>
-      <c r="D23">
+      <c r="D62" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E62" s="2">
         <v>43532</v>
       </c>
-      <c r="F23">
+      <c r="F62" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C63" s="2">
         <v>43529</v>
       </c>
-      <c r="D24">
+      <c r="D63" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E63" s="2">
         <v>43531</v>
       </c>
-      <c r="F24">
+      <c r="F63" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B64" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C64" s="2">
         <v>43529</v>
       </c>
-      <c r="D25">
+      <c r="D64" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E64" s="2">
         <v>43530</v>
       </c>
-      <c r="F25">
+      <c r="F64" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B65" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C65" s="2">
         <v>43530</v>
       </c>
-      <c r="D26">
+      <c r="D65" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E65" s="2">
         <v>43531</v>
       </c>
-      <c r="F26">
+      <c r="F65" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B66" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C66" s="2">
         <v>43531</v>
       </c>
-      <c r="D27">
+      <c r="D66" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E66" s="2">
         <v>43532</v>
       </c>
-      <c r="F27">
+      <c r="F66" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C67" s="2">
         <v>43534</v>
       </c>
-      <c r="D28">
+      <c r="D67" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E67" s="2">
         <v>43536</v>
       </c>
-      <c r="F28">
+      <c r="F67" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C68" s="2">
         <v>43532</v>
       </c>
-      <c r="D29">
+      <c r="D68" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E68" s="2">
         <v>43535</v>
       </c>
-      <c r="F29">
+      <c r="F68" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C69" s="2">
         <v>43542</v>
       </c>
-      <c r="D30">
+      <c r="D69" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E69" s="2">
         <v>43543</v>
       </c>
-      <c r="F30">
+      <c r="F69" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C70" s="2">
         <v>43542</v>
       </c>
-      <c r="D31">
+      <c r="D70" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E70" s="2">
         <v>43547</v>
       </c>
-      <c r="F31">
+      <c r="F70" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C71" s="2">
         <v>43543</v>
       </c>
-      <c r="D32">
+      <c r="D71" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E71" s="2">
         <v>43546</v>
       </c>
-      <c r="F32">
+      <c r="F71" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C72" s="2">
         <v>43544</v>
       </c>
-      <c r="D33">
+      <c r="D72" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E72" s="2">
         <v>43546</v>
       </c>
-      <c r="F33">
+      <c r="F72" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C73" s="2">
         <v>43537</v>
       </c>
-      <c r="D34">
+      <c r="D73" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E73" s="2">
         <v>43544</v>
       </c>
-      <c r="F34">
+      <c r="F73" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C74" s="2">
         <v>43539</v>
       </c>
-      <c r="D35">
+      <c r="D74" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E74" s="2">
         <v>43546</v>
       </c>
-      <c r="F35">
+      <c r="F74" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C75" s="2">
         <v>43546</v>
       </c>
-      <c r="D36">
+      <c r="D75" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E75" s="2">
         <v>43547</v>
       </c>
-      <c r="F36">
+      <c r="F75" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C76" s="2">
         <v>43546</v>
       </c>
-      <c r="D37">
+      <c r="D76" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E76" s="2">
         <v>43547</v>
       </c>
-      <c r="F37">
+      <c r="F76" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C77" s="2">
         <v>43546</v>
       </c>
-      <c r="D38">
+      <c r="D77" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E77" s="2">
         <v>43548</v>
       </c>
-      <c r="F38">
+      <c r="F77" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>